--- a/planilhas/solicitacoes.xlsx
+++ b/planilhas/solicitacoes.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="4:4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -581,7 +581,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>205.718.991-02</t>
@@ -633,20 +633,20 @@
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="13.8" customHeight="1" s="2">
       <c r="A4" t="inlineStr">
         <is>
-          <t>267.601.007-78</t>
+          <t>607.712.603-93</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ALCALENIO DA SILVA</t>
+          <t>FLORISBALDO CUNHA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>reparos</t>
+          <t>qualidade</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -656,27 +656,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24/11/2022</t>
+          <t>27/11/2022</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>28/11/2022</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>11:00:00</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>25/11/2022</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>14:00:00</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Troca da bomba de água</t>
+          <t>Troca do oleo do motor</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
